--- a/Small.xlsx
+++ b/Small.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F5007B-279E-4EC5-907A-7B34118B493D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7476" yWindow="2196" windowWidth="10140" windowHeight="9972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -12,19 +13,31 @@
   <definedNames>
     <definedName name="alpha1">גיליון1!$G$2</definedName>
     <definedName name="alpha2">גיליון1!$H$2</definedName>
+    <definedName name="B_round">גיליון1!$A$12:$D$15</definedName>
     <definedName name="Capacity">גיליון1!$E$2</definedName>
     <definedName name="L">גיליון1!$B$2</definedName>
     <definedName name="n">גיליון1!$D$2</definedName>
+    <definedName name="NSiB">גיליון1!$A$17:$D$20</definedName>
     <definedName name="requests">גיליון1!$A$5:$E$10</definedName>
     <definedName name="S">גיליון1!$A$2</definedName>
     <definedName name="sigma">גיליון1!$F$2</definedName>
     <definedName name="t">גיליון1!$A$3:$D$3</definedName>
+    <definedName name="TBS">גיליון1!$A$22:$D$25</definedName>
     <definedName name="V">גיליון1!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,12 +88,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -93,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -101,12 +114,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,14 +488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -580,8 +682,176 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>6</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A5:E10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E10">
     <sortCondition ref="C5:C10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
